--- a/src/main/resources/template/excel/export_student_subject.xlsx
+++ b/src/main/resources/template/excel/export_student_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\dkt-admin\src\main\resources\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3834B12-420C-4A21-A9A4-F68B493E9A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74C63B-EB66-4768-8DA7-509F58ADBBBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,54 +213,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -280,18 +232,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,16 +255,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,39 +592,39 @@
   <dimension ref="A1:L597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="15" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="20"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -687,532 +639,532 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="16"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="16"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="16"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="16"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="16"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="16"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="16"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="16"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="16"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="16"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="16"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="16"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="16"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" s="16"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="16"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E77" s="16"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" s="16"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85" s="16"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" s="16"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93" s="16"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" s="16"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101" s="16"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E105" s="16"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E109" s="16"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113" s="16"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E117" s="16"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E121" s="16"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E125" s="16"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E129" s="16"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E133" s="16"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E137" s="16"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E141" s="16"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E145" s="16"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E149" s="16"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E153" s="16"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E157" s="16"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E161" s="16"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E165" s="16"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E169" s="16"/>
+      <c r="E169" s="13"/>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E173" s="16"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E177" s="16"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E181" s="16"/>
+      <c r="E181" s="13"/>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E185" s="16"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E189" s="16"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E193" s="16"/>
+      <c r="E193" s="13"/>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E197" s="16"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E201" s="16"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E205" s="16"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E209" s="16"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E213" s="16"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E217" s="16"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E221" s="16"/>
+      <c r="E221" s="13"/>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E225" s="16"/>
+      <c r="E225" s="13"/>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E229" s="16"/>
+      <c r="E229" s="13"/>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E233" s="16"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E237" s="16"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E241" s="16"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E245" s="16"/>
+      <c r="E245" s="13"/>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E249" s="16"/>
+      <c r="E249" s="13"/>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E253" s="16"/>
+      <c r="E253" s="13"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E257" s="16"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E261" s="16"/>
+      <c r="E261" s="13"/>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E265" s="16"/>
+      <c r="E265" s="13"/>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E269" s="16"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E273" s="16"/>
+      <c r="E273" s="13"/>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E277" s="16"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E281" s="16"/>
+      <c r="E281" s="13"/>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E285" s="16"/>
+      <c r="E285" s="13"/>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E289" s="16"/>
+      <c r="E289" s="13"/>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E293" s="16"/>
+      <c r="E293" s="13"/>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E297" s="16"/>
+      <c r="E297" s="13"/>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E301" s="16"/>
+      <c r="E301" s="13"/>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E305" s="16"/>
+      <c r="E305" s="13"/>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E309" s="16"/>
+      <c r="E309" s="13"/>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E313" s="16"/>
+      <c r="E313" s="13"/>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E317" s="16"/>
+      <c r="E317" s="13"/>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E321" s="16"/>
+      <c r="E321" s="13"/>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E325" s="16"/>
+      <c r="E325" s="13"/>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E329" s="16"/>
+      <c r="E329" s="13"/>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E333" s="16"/>
+      <c r="E333" s="13"/>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E337" s="16"/>
+      <c r="E337" s="13"/>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E341" s="16"/>
+      <c r="E341" s="13"/>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E345" s="16"/>
+      <c r="E345" s="13"/>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E349" s="16"/>
+      <c r="E349" s="13"/>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E353" s="16"/>
+      <c r="E353" s="13"/>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E357" s="16"/>
+      <c r="E357" s="13"/>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E361" s="16"/>
+      <c r="E361" s="13"/>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E365" s="16"/>
+      <c r="E365" s="13"/>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E369" s="16"/>
+      <c r="E369" s="13"/>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E373" s="16"/>
+      <c r="E373" s="13"/>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E377" s="16"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E381" s="16"/>
+      <c r="E381" s="13"/>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E385" s="16"/>
+      <c r="E385" s="13"/>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E389" s="16"/>
+      <c r="E389" s="13"/>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E393" s="16"/>
+      <c r="E393" s="13"/>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E397" s="16"/>
+      <c r="E397" s="13"/>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E401" s="16"/>
+      <c r="E401" s="13"/>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E405" s="16"/>
+      <c r="E405" s="13"/>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E409" s="16"/>
+      <c r="E409" s="13"/>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E413" s="16"/>
+      <c r="E413" s="13"/>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E417" s="16"/>
+      <c r="E417" s="13"/>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E421" s="16"/>
+      <c r="E421" s="13"/>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E425" s="16"/>
+      <c r="E425" s="13"/>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E429" s="16"/>
+      <c r="E429" s="13"/>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E433" s="16"/>
+      <c r="E433" s="13"/>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E437" s="16"/>
+      <c r="E437" s="13"/>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E441" s="16"/>
+      <c r="E441" s="13"/>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E445" s="16"/>
+      <c r="E445" s="13"/>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E449" s="16"/>
+      <c r="E449" s="13"/>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E453" s="16"/>
+      <c r="E453" s="13"/>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E457" s="16"/>
+      <c r="E457" s="13"/>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E461" s="16"/>
+      <c r="E461" s="13"/>
     </row>
     <row r="465" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E465" s="16"/>
+      <c r="E465" s="13"/>
     </row>
     <row r="469" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E469" s="16"/>
+      <c r="E469" s="13"/>
     </row>
     <row r="473" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E473" s="16"/>
+      <c r="E473" s="13"/>
     </row>
     <row r="477" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E477" s="16"/>
+      <c r="E477" s="13"/>
     </row>
     <row r="481" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E481" s="16"/>
+      <c r="E481" s="13"/>
     </row>
     <row r="485" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E485" s="16"/>
+      <c r="E485" s="13"/>
     </row>
     <row r="489" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E489" s="16"/>
+      <c r="E489" s="13"/>
     </row>
     <row r="493" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E493" s="16"/>
+      <c r="E493" s="13"/>
     </row>
     <row r="497" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E497" s="16"/>
+      <c r="E497" s="13"/>
     </row>
     <row r="501" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E501" s="16"/>
+      <c r="E501" s="13"/>
     </row>
     <row r="505" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E505" s="16"/>
+      <c r="E505" s="13"/>
     </row>
     <row r="509" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E509" s="16"/>
+      <c r="E509" s="13"/>
     </row>
     <row r="513" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E513" s="16"/>
+      <c r="E513" s="13"/>
     </row>
     <row r="517" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E517" s="16"/>
+      <c r="E517" s="13"/>
     </row>
     <row r="521" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E521" s="16"/>
+      <c r="E521" s="13"/>
     </row>
     <row r="525" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E525" s="16"/>
+      <c r="E525" s="13"/>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E529" s="16"/>
+      <c r="E529" s="13"/>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E533" s="16"/>
+      <c r="E533" s="13"/>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E537" s="16"/>
+      <c r="E537" s="13"/>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E541" s="16"/>
+      <c r="E541" s="13"/>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E545" s="16"/>
+      <c r="E545" s="13"/>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E549" s="16"/>
+      <c r="E549" s="13"/>
     </row>
     <row r="553" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E553" s="16"/>
+      <c r="E553" s="13"/>
     </row>
     <row r="557" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E557" s="16"/>
+      <c r="E557" s="13"/>
     </row>
     <row r="561" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E561" s="16"/>
+      <c r="E561" s="13"/>
     </row>
     <row r="565" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E565" s="16"/>
+      <c r="E565" s="13"/>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E569" s="16"/>
+      <c r="E569" s="13"/>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E573" s="16"/>
+      <c r="E573" s="13"/>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E577" s="16"/>
+      <c r="E577" s="13"/>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E581" s="16"/>
+      <c r="E581" s="13"/>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E585" s="16"/>
+      <c r="E585" s="13"/>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E589" s="16"/>
+      <c r="E589" s="13"/>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E593" s="16"/>
+      <c r="E593" s="13"/>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E597" s="16"/>
+      <c r="E597" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
